--- a/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/list.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwei27/GitRepository/jdcloud-document/en/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4B369-CC61-5944-B291-134A0A1D7AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-37160" yWindow="2740" windowWidth="32760" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <r>
       <rPr>
@@ -461,18 +462,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>您现在的操作会断开与对端VPC的连接。请您在确保已与对端VPC管理员充分沟通的前提下进行该操作。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>list_i18nKey_20</t>
     </r>
   </si>
@@ -485,18 +474,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>确认删除VPC对等连接</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>list_i18nKey_21</t>
     </r>
   </si>
@@ -713,18 +690,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>No VPC Peering Available</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Create VPC Peering</t>
     </r>
   </si>
@@ -774,18 +739,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Notification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This operation will disconnect VPC of the opposite end. Please be sure to conduct the operation on condition that the sufficient communication has been made to the VPC administrator of the opposite end.</t>
     </r>
   </si>
   <si>
@@ -822,14 +775,65 @@
   </si>
   <si>
     <t>Go to configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您现在的操作会断开与对端VPC的连接。请您在确保已与对端VPC管理员充分沟通的前提下进行该操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration Later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configuration Now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No VPC Peering Available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currently No Available VPC Peering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认删除VPC对等连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This operation will disconnect VPC of the opposite end. Please be sure to conduct the operation on condition that the sufficient communication has been made to the VPC administrator of the opposite end.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This operation will disconnect VPC Peering.Please do this while ensuring that you are in full communication with the peer vpc's administrator.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -850,6 +854,21 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -873,13 +892,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,276 +1247,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B17 A19:B23 A18" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B18 A22:B24 A19 A20 A21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/list.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/list.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwei27/GitRepository/jdcloud-document/en/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4B369-CC61-5944-B291-134A0A1D7AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37160" yWindow="2740" windowWidth="32760" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <r>
       <rPr>
@@ -536,256 +530,16 @@
       </rPr>
       <t>前往配置</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC Peering</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Create</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC of the End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC of the Opposite End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Creation Time</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>All</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Connected</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Disconnected</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Initialization</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Operations</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delete</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Create VPC Peering</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Confirm to delete VPC Peering</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Creation Succeeded. Please go to relevant routing about route table configuration.</t>
-    </r>
-  </si>
-  <si>
-    <t>Configure it later</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>友情提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Go to configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Peer VPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reminder</t>
   </si>
   <si>
@@ -805,10 +559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No VPC Peering Available</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Currently No Available VPC Peering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,23 +567,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This operation will disconnect VPC of the opposite end. Please be sure to conduct the operation on condition that the sufficient communication has been made to the VPC administrator of the opposite end.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This operation will disconnect VPC Peering.Please do this while ensuring that you are in full communication with the peer vpc's administrator.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改意见</t>
+    <t>My VPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC Peering</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Creation Time</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>Disconnected</t>
+  </si>
+  <si>
+    <t>Initialization</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Create VPC Peering</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Confirm to delete VPC Peering</t>
+  </si>
+  <si>
+    <t>Creation Succeeded. Please go to relevant routing about route table configuration.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -871,6 +662,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -892,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -908,6 +705,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,304 +1057,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="46.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="46.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="3"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="6"/>
+    <col min="4" max="4" width="46.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D1" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C4" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C10" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C12" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C15" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C23" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A2:B18 A22:B24 A19 A20 A21" numberStoredAsText="1"/>
   </ignoredErrors>
